--- a/data/pca/factorExposure/factorExposure_2017-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02376845159990295</v>
+        <v>-0.008265158649355073</v>
       </c>
       <c r="C2">
-        <v>-0.0002978938800230069</v>
+        <v>0.04467651666607136</v>
       </c>
       <c r="D2">
-        <v>-0.0233510462988984</v>
+        <v>-0.02971287235722991</v>
       </c>
       <c r="E2">
-        <v>0.01195329579579421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03242269232984143</v>
+      </c>
+      <c r="F2">
+        <v>-0.008993562767789941</v>
+      </c>
+      <c r="G2">
+        <v>-0.07509690989858912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01672106466225051</v>
+        <v>-0.05048389427564905</v>
       </c>
       <c r="C3">
-        <v>-0.05753274067303553</v>
+        <v>0.07773206611563113</v>
       </c>
       <c r="D3">
-        <v>-0.03454275288414147</v>
+        <v>-0.0160991493494219</v>
       </c>
       <c r="E3">
-        <v>0.01647703342631789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1051173881426587</v>
+      </c>
+      <c r="F3">
+        <v>-0.02889362956498212</v>
+      </c>
+      <c r="G3">
+        <v>-0.1568313655571749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02347437204177124</v>
+        <v>-0.05852511669780061</v>
       </c>
       <c r="C4">
-        <v>-0.01730822447947959</v>
+        <v>0.06547726179764822</v>
       </c>
       <c r="D4">
-        <v>-0.06596386896028519</v>
+        <v>-0.02389620793358464</v>
       </c>
       <c r="E4">
-        <v>-0.01144218758556133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02431640086228459</v>
+      </c>
+      <c r="F4">
+        <v>-0.00808159992406623</v>
+      </c>
+      <c r="G4">
+        <v>-0.07516899189915115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01531294240237985</v>
+        <v>-0.03861814383911995</v>
       </c>
       <c r="C6">
-        <v>-0.009865304663624333</v>
+        <v>0.0534273748763603</v>
       </c>
       <c r="D6">
-        <v>-0.08545210147864245</v>
+        <v>-0.0164916890130181</v>
       </c>
       <c r="E6">
-        <v>-0.005862445475850082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02586268401677296</v>
+      </c>
+      <c r="F6">
+        <v>-0.01272009849696165</v>
+      </c>
+      <c r="G6">
+        <v>-0.05591262842627181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01117361809173085</v>
+        <v>-0.01985478907204178</v>
       </c>
       <c r="C7">
-        <v>-0.008828011323343238</v>
+        <v>0.04095163656943792</v>
       </c>
       <c r="D7">
-        <v>-0.0402143687540733</v>
+        <v>-0.01309583511858752</v>
       </c>
       <c r="E7">
-        <v>-0.05818517880805688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005508039991923323</v>
+      </c>
+      <c r="F7">
+        <v>0.004069575606405296</v>
+      </c>
+      <c r="G7">
+        <v>-0.1159193184332471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001343236461909979</v>
+        <v>-0.00111723763242141</v>
       </c>
       <c r="C8">
-        <v>0.0008252897322994247</v>
+        <v>0.02173772191844183</v>
       </c>
       <c r="D8">
-        <v>-0.002812227199018704</v>
+        <v>-0.003807498365164562</v>
       </c>
       <c r="E8">
-        <v>-0.007559721346331696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0228137018950547</v>
+      </c>
+      <c r="F8">
+        <v>-0.01698078592629886</v>
+      </c>
+      <c r="G8">
+        <v>-0.04645519593486341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0163345623233659</v>
+        <v>-0.03393291972391612</v>
       </c>
       <c r="C9">
-        <v>-0.0195469503384147</v>
+        <v>0.04633749044926567</v>
       </c>
       <c r="D9">
-        <v>-0.05063245599638976</v>
+        <v>-0.0164376066516417</v>
       </c>
       <c r="E9">
-        <v>-0.000772052577977625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01729103100101131</v>
+      </c>
+      <c r="F9">
+        <v>-0.01363454464398048</v>
+      </c>
+      <c r="G9">
+        <v>-0.07979375469594291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02030870039075623</v>
+        <v>-0.09503650645718756</v>
       </c>
       <c r="C10">
-        <v>-0.1666799956305837</v>
+        <v>-0.1842455419298537</v>
       </c>
       <c r="D10">
-        <v>0.1037441971173488</v>
+        <v>0.01621805514578104</v>
       </c>
       <c r="E10">
-        <v>0.008801827747232187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01588193975002098</v>
+      </c>
+      <c r="F10">
+        <v>0.01999055941695241</v>
+      </c>
+      <c r="G10">
+        <v>-0.05505738775829629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007939846804579483</v>
+        <v>-0.03413943137202045</v>
       </c>
       <c r="C11">
-        <v>-0.006165467789825296</v>
+        <v>0.05431407999270898</v>
       </c>
       <c r="D11">
-        <v>-0.04143473370572793</v>
+        <v>-0.00256273340914673</v>
       </c>
       <c r="E11">
-        <v>0.007050680165563664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009729696753626359</v>
+      </c>
+      <c r="F11">
+        <v>-0.02193444566339767</v>
+      </c>
+      <c r="G11">
+        <v>-0.06211712615258191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006457945522380182</v>
+        <v>-0.03623538944811825</v>
       </c>
       <c r="C12">
-        <v>-0.01296836719795968</v>
+        <v>0.04915872650915528</v>
       </c>
       <c r="D12">
-        <v>-0.04779791550908468</v>
+        <v>-0.006219381317078513</v>
       </c>
       <c r="E12">
-        <v>-0.004271546301441603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0002319836084046616</v>
+      </c>
+      <c r="F12">
+        <v>-0.001685402742200688</v>
+      </c>
+      <c r="G12">
+        <v>-0.05810140673804457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02291515144614554</v>
+        <v>-0.01572051634962736</v>
       </c>
       <c r="C13">
-        <v>-0.01560051460764166</v>
+        <v>0.03726575087643485</v>
       </c>
       <c r="D13">
-        <v>-0.008881066780684772</v>
+        <v>-0.02611831563484784</v>
       </c>
       <c r="E13">
-        <v>0.01164888862796784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02910473836286692</v>
+      </c>
+      <c r="F13">
+        <v>-0.007672955229903475</v>
+      </c>
+      <c r="G13">
+        <v>-0.09369281787692947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008311235881890854</v>
+        <v>-0.008110967813555039</v>
       </c>
       <c r="C14">
-        <v>-0.01475575056436939</v>
+        <v>0.02588395658144593</v>
       </c>
       <c r="D14">
-        <v>-0.009763079576483204</v>
+        <v>-0.009210569575666929</v>
       </c>
       <c r="E14">
-        <v>-0.007065098775230969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001362259213029748</v>
+      </c>
+      <c r="F14">
+        <v>0.003764035761098517</v>
+      </c>
+      <c r="G14">
+        <v>-0.07992561047526668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001626327860277606</v>
+        <v>-0.03345491722358366</v>
       </c>
       <c r="C16">
-        <v>-0.01223494012679283</v>
+        <v>0.04847896072851329</v>
       </c>
       <c r="D16">
-        <v>-0.047706884274764</v>
+        <v>-0.002044381591776494</v>
       </c>
       <c r="E16">
-        <v>-0.003476445597649628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00809268646451303</v>
+      </c>
+      <c r="F16">
+        <v>-0.003091296415078799</v>
+      </c>
+      <c r="G16">
+        <v>-0.06621030665885681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01477244346936047</v>
+        <v>-0.02247734530723225</v>
       </c>
       <c r="C19">
-        <v>-0.02392974889153221</v>
+        <v>0.05055004782848568</v>
       </c>
       <c r="D19">
-        <v>-0.01644440786832269</v>
+        <v>-0.01804367445283775</v>
       </c>
       <c r="E19">
-        <v>-0.003601803456682777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06464997826832809</v>
+      </c>
+      <c r="F19">
+        <v>-0.02100761454710418</v>
+      </c>
+      <c r="G19">
+        <v>-0.1077895894535735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.010623368874475</v>
+        <v>-0.01449828833162612</v>
       </c>
       <c r="C20">
-        <v>-0.00749719473926778</v>
+        <v>0.03543077971755768</v>
       </c>
       <c r="D20">
-        <v>-0.01255979071104892</v>
+        <v>-0.01367020005306803</v>
       </c>
       <c r="E20">
-        <v>0.01237567806068133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02790095871807787</v>
+      </c>
+      <c r="F20">
+        <v>0.004202984646741511</v>
+      </c>
+      <c r="G20">
+        <v>-0.07911425259970972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01481844339362524</v>
+        <v>-0.01332582456725783</v>
       </c>
       <c r="C21">
-        <v>-0.02045990817275968</v>
+        <v>0.03916813663448655</v>
       </c>
       <c r="D21">
-        <v>-0.02368183325562925</v>
+        <v>-0.01797377487448494</v>
       </c>
       <c r="E21">
-        <v>-0.009129441089538712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04009952063736609</v>
+      </c>
+      <c r="F21">
+        <v>-0.001197383048068488</v>
+      </c>
+      <c r="G21">
+        <v>-0.1133491585137443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004588389040772946</v>
+        <v>-0.02738572275836761</v>
       </c>
       <c r="C24">
-        <v>-0.0006380348862889609</v>
+        <v>0.05131535281308369</v>
       </c>
       <c r="D24">
-        <v>-0.04406061568560352</v>
+        <v>-0.007387690889258014</v>
       </c>
       <c r="E24">
-        <v>0.0009868435512366107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005478015341395802</v>
+      </c>
+      <c r="F24">
+        <v>-0.01459792497161279</v>
+      </c>
+      <c r="G24">
+        <v>-0.06660022079238588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01228071785212687</v>
+        <v>-0.04213059333997059</v>
       </c>
       <c r="C25">
-        <v>-0.01786973345501447</v>
+        <v>0.05811628576984745</v>
       </c>
       <c r="D25">
-        <v>-0.0456929194984701</v>
+        <v>-0.0113771469839217</v>
       </c>
       <c r="E25">
-        <v>0.0006646663290121926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.000816395244840744</v>
+      </c>
+      <c r="F25">
+        <v>-0.009938125328883897</v>
+      </c>
+      <c r="G25">
+        <v>-0.07266053523222261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0234407406047704</v>
+        <v>-0.0157905904130218</v>
       </c>
       <c r="C26">
-        <v>-0.01214580941550758</v>
+        <v>0.00877823817355422</v>
       </c>
       <c r="D26">
-        <v>0.002492793763689969</v>
+        <v>-0.02343177967128181</v>
       </c>
       <c r="E26">
-        <v>-0.00712375228090631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002680679325658672</v>
+      </c>
+      <c r="F26">
+        <v>0.007233457057669886</v>
+      </c>
+      <c r="G26">
+        <v>-0.06376544570319939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0428172082457081</v>
+        <v>-0.1197480227117435</v>
       </c>
       <c r="C28">
-        <v>-0.2377660020413918</v>
+        <v>-0.2355785960962372</v>
       </c>
       <c r="D28">
-        <v>0.1569308484833919</v>
+        <v>0.006865346943680772</v>
       </c>
       <c r="E28">
-        <v>-0.0145355632192836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00443982668532795</v>
+      </c>
+      <c r="F28">
+        <v>0.01804872183465197</v>
+      </c>
+      <c r="G28">
+        <v>-0.07262805832856863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008517403013010539</v>
+        <v>-0.01057843864382088</v>
       </c>
       <c r="C29">
-        <v>-0.01823907613950087</v>
+        <v>0.02034133873905494</v>
       </c>
       <c r="D29">
-        <v>-0.009555434010671325</v>
+        <v>-0.007966633701984959</v>
       </c>
       <c r="E29">
-        <v>-0.002706082846102467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003627978631693154</v>
+      </c>
+      <c r="F29">
+        <v>0.01391146782896762</v>
+      </c>
+      <c r="G29">
+        <v>-0.07174256366231627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02368048717058024</v>
+        <v>-0.04313642938489241</v>
       </c>
       <c r="C30">
-        <v>-0.001919771944462831</v>
+        <v>0.06619413123039344</v>
       </c>
       <c r="D30">
-        <v>-0.06063990039788501</v>
+        <v>-0.02892365619988761</v>
       </c>
       <c r="E30">
-        <v>0.0507508176229117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05281368708317804</v>
+      </c>
+      <c r="F30">
+        <v>-0.04910723021775057</v>
+      </c>
+      <c r="G30">
+        <v>-0.08180831163099603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01010094872589376</v>
+        <v>-0.05356117236222931</v>
       </c>
       <c r="C31">
-        <v>-0.04378110197954611</v>
+        <v>0.03552917349918001</v>
       </c>
       <c r="D31">
-        <v>-0.04358066500232231</v>
+        <v>-0.003137728299787229</v>
       </c>
       <c r="E31">
-        <v>-0.00940225047429202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005954251710864419</v>
+      </c>
+      <c r="F31">
+        <v>0.0397763795887978</v>
+      </c>
+      <c r="G31">
+        <v>-0.06712064465684631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005751046526761348</v>
+        <v>0.0005876986100983046</v>
       </c>
       <c r="C32">
-        <v>-0.01975915503086604</v>
+        <v>0.02662610493609643</v>
       </c>
       <c r="D32">
-        <v>0.01011648393422749</v>
+        <v>0.003880351244729591</v>
       </c>
       <c r="E32">
-        <v>-0.05076204887310451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01557548186274782</v>
+      </c>
+      <c r="F32">
+        <v>-0.042376036300026</v>
+      </c>
+      <c r="G32">
+        <v>-0.08895971981298528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01416191061193847</v>
+        <v>-0.02754733302933786</v>
       </c>
       <c r="C33">
-        <v>-0.02663256026944797</v>
+        <v>0.04926701628211728</v>
       </c>
       <c r="D33">
-        <v>-0.02687620840245327</v>
+        <v>-0.01533099373038841</v>
       </c>
       <c r="E33">
-        <v>0.03113748762911998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03380143446822836</v>
+      </c>
+      <c r="F33">
+        <v>-0.01727794644565456</v>
+      </c>
+      <c r="G33">
+        <v>-0.1053420679341329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003872175880617797</v>
+        <v>-0.03937749144266114</v>
       </c>
       <c r="C34">
-        <v>-0.01870041455732673</v>
+        <v>0.06272581428825195</v>
       </c>
       <c r="D34">
-        <v>-0.05095285402730376</v>
+        <v>0.0042713169625904</v>
       </c>
       <c r="E34">
-        <v>-0.007740138892814022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0001932408839572602</v>
+      </c>
+      <c r="F34">
+        <v>-0.02176674545185792</v>
+      </c>
+      <c r="G34">
+        <v>-0.07418325506239534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01320086203678121</v>
+        <v>-0.01499090251152196</v>
       </c>
       <c r="C36">
-        <v>-0.02133651910895049</v>
+        <v>0.009367919791347074</v>
       </c>
       <c r="D36">
-        <v>-0.001012403891424102</v>
+        <v>-0.0117785716835042</v>
       </c>
       <c r="E36">
-        <v>-0.002638923847758211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002051713356922224</v>
+      </c>
+      <c r="F36">
+        <v>0.007372528326689504</v>
+      </c>
+      <c r="G36">
+        <v>-0.06001088971194785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.002993053264495601</v>
+        <v>-0.03290457167511197</v>
       </c>
       <c r="C38">
-        <v>-0.03722272096943797</v>
+        <v>0.02882510036682676</v>
       </c>
       <c r="D38">
-        <v>-0.03392634850207665</v>
+        <v>0.007772425028767427</v>
       </c>
       <c r="E38">
-        <v>-0.004728255837201834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00221669455945872</v>
+      </c>
+      <c r="F38">
+        <v>0.01514098193861165</v>
+      </c>
+      <c r="G38">
+        <v>-0.06619252529441662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004778722640846162</v>
+        <v>-0.03522996349461072</v>
       </c>
       <c r="C39">
-        <v>0.01949297198802968</v>
+        <v>0.08090586887317505</v>
       </c>
       <c r="D39">
-        <v>-0.08745462567626465</v>
+        <v>-0.01198020006978491</v>
       </c>
       <c r="E39">
-        <v>0.01460864600238674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02131305657216272</v>
+      </c>
+      <c r="F39">
+        <v>-0.02673092180583524</v>
+      </c>
+      <c r="G39">
+        <v>-0.06382398602422937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01245745034732483</v>
+        <v>-0.01746452696708931</v>
       </c>
       <c r="C40">
-        <v>-0.02087009405370063</v>
+        <v>0.03408402581298006</v>
       </c>
       <c r="D40">
-        <v>-0.02682411908123683</v>
+        <v>-0.01413759351065219</v>
       </c>
       <c r="E40">
-        <v>-0.001026092048223337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02416781794546808</v>
+      </c>
+      <c r="F40">
+        <v>-0.0126333487158423</v>
+      </c>
+      <c r="G40">
+        <v>-0.0740992066980556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006460775422977702</v>
+        <v>-0.01773928162130132</v>
       </c>
       <c r="C41">
-        <v>-0.02226073978024338</v>
+        <v>0.001647278872000641</v>
       </c>
       <c r="D41">
-        <v>0.01081996375492279</v>
+        <v>-0.003762016021594367</v>
       </c>
       <c r="E41">
-        <v>-0.003096389579156876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0004510198605785349</v>
+      </c>
+      <c r="F41">
+        <v>0.01253667308744104</v>
+      </c>
+      <c r="G41">
+        <v>-0.04775377326107031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09568718725372374</v>
+        <v>-0.01164207537293635</v>
       </c>
       <c r="C42">
-        <v>0.004785579402832094</v>
+        <v>0.03822223023084464</v>
       </c>
       <c r="D42">
-        <v>-0.2676506143808741</v>
+        <v>-0.09365064375049868</v>
       </c>
       <c r="E42">
-        <v>0.4271563055144324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02798916135512422</v>
+      </c>
+      <c r="F42">
+        <v>0.04122590981936155</v>
+      </c>
+      <c r="G42">
+        <v>0.1588101074266821</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007748818530305598</v>
+        <v>-0.03303025460599901</v>
       </c>
       <c r="C43">
-        <v>-0.02653949585908227</v>
+        <v>0.0148323510374265</v>
       </c>
       <c r="D43">
-        <v>0.01135212108309987</v>
+        <v>-0.005379868311204975</v>
       </c>
       <c r="E43">
-        <v>0.002879639732610883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01268783478350468</v>
+      </c>
+      <c r="F43">
+        <v>0.004662027831553635</v>
+      </c>
+      <c r="G43">
+        <v>-0.0711171881577969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003196251366358282</v>
+        <v>-0.01446669893102128</v>
       </c>
       <c r="C44">
-        <v>-0.006443924447365861</v>
+        <v>0.05050930715437953</v>
       </c>
       <c r="D44">
-        <v>-0.02637008803222236</v>
+        <v>-0.00649439135600372</v>
       </c>
       <c r="E44">
-        <v>-0.005592485559170924</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0194292035553407</v>
+      </c>
+      <c r="F44">
+        <v>0.003768853519275094</v>
+      </c>
+      <c r="G44">
+        <v>-0.08779139576320662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01131168718147251</v>
+        <v>-0.007383568319363116</v>
       </c>
       <c r="C46">
-        <v>-0.01582807199555796</v>
+        <v>0.01678439392946548</v>
       </c>
       <c r="D46">
-        <v>-0.008907926909491128</v>
+        <v>-0.01186566904002558</v>
       </c>
       <c r="E46">
-        <v>0.001701343852977362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001769087307510464</v>
+      </c>
+      <c r="F46">
+        <v>0.01644175017367351</v>
+      </c>
+      <c r="G46">
+        <v>-0.07302138230664228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004810999556652647</v>
+        <v>-0.07910879320586459</v>
       </c>
       <c r="C47">
-        <v>-0.05499734192220153</v>
+        <v>0.0638853526296122</v>
       </c>
       <c r="D47">
-        <v>-0.06428515966450239</v>
+        <v>0.005459275455663585</v>
       </c>
       <c r="E47">
-        <v>-0.004309849638495148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01018272995278341</v>
+      </c>
+      <c r="F47">
+        <v>0.05525157994145209</v>
+      </c>
+      <c r="G47">
+        <v>-0.06536264259330106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004135079576845966</v>
+        <v>-0.02097563976404858</v>
       </c>
       <c r="C48">
-        <v>-0.02669984990003608</v>
+        <v>0.01082408319433437</v>
       </c>
       <c r="D48">
-        <v>-0.01314238698132306</v>
+        <v>-0.001021936124662312</v>
       </c>
       <c r="E48">
-        <v>-0.001473662881966348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002154096884595826</v>
+      </c>
+      <c r="F48">
+        <v>0.02080223301182753</v>
+      </c>
+      <c r="G48">
+        <v>-0.067273979670708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006821072901705476</v>
+        <v>-0.07700175389947907</v>
       </c>
       <c r="C50">
-        <v>-0.05657585366278511</v>
+        <v>0.06799214662738301</v>
       </c>
       <c r="D50">
-        <v>-0.06720955008745415</v>
+        <v>0.003131928598141498</v>
       </c>
       <c r="E50">
-        <v>-0.03161223080509244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01062884405524977</v>
+      </c>
+      <c r="F50">
+        <v>0.05872151030067647</v>
+      </c>
+      <c r="G50">
+        <v>-0.08327371368117002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0074241630835532</v>
+        <v>-0.01383862976072128</v>
       </c>
       <c r="C51">
-        <v>-0.01710599811803887</v>
+        <v>0.03330408209918141</v>
       </c>
       <c r="D51">
-        <v>0.002014506379902166</v>
+        <v>-0.010012721581749</v>
       </c>
       <c r="E51">
-        <v>-0.004838092158075454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01737500323357171</v>
+      </c>
+      <c r="F51">
+        <v>-0.02431866070479545</v>
+      </c>
+      <c r="G51">
+        <v>-0.1052408417873546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007790780734221108</v>
+        <v>-0.08348921826453359</v>
       </c>
       <c r="C53">
-        <v>-0.06648717978289245</v>
+        <v>0.08042367016197595</v>
       </c>
       <c r="D53">
-        <v>-0.1219010236042528</v>
+        <v>0.004590970251122852</v>
       </c>
       <c r="E53">
-        <v>-0.01017171709771327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02975391373559043</v>
+      </c>
+      <c r="F53">
+        <v>0.05965730633542348</v>
+      </c>
+      <c r="G53">
+        <v>-0.05792086587575006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001703616813008719</v>
+        <v>-0.03010205059202879</v>
       </c>
       <c r="C54">
-        <v>-0.0365707394818757</v>
+        <v>0.01654180216181518</v>
       </c>
       <c r="D54">
-        <v>-0.0006400620322145132</v>
+        <v>0.001910187176582138</v>
       </c>
       <c r="E54">
-        <v>-0.00269242101968782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.007567028302461809</v>
+      </c>
+      <c r="F54">
+        <v>0.005550011224802903</v>
+      </c>
+      <c r="G54">
+        <v>-0.07755948000248228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003937257749256549</v>
+        <v>-0.07353700358239168</v>
       </c>
       <c r="C55">
-        <v>-0.04479169254093503</v>
+        <v>0.06725168628824228</v>
       </c>
       <c r="D55">
-        <v>-0.1037118897129365</v>
+        <v>0.005699429644729344</v>
       </c>
       <c r="E55">
-        <v>0.003166809158696999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02599757175969495</v>
+      </c>
+      <c r="F55">
+        <v>0.05883617691583067</v>
+      </c>
+      <c r="G55">
+        <v>-0.03726799194766782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006947962150814841</v>
+        <v>-0.1408748476339498</v>
       </c>
       <c r="C56">
-        <v>-0.09296984865183119</v>
+        <v>0.1067691093889663</v>
       </c>
       <c r="D56">
-        <v>-0.1563697897381928</v>
+        <v>0.01287918567771121</v>
       </c>
       <c r="E56">
-        <v>0.001815161416183699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03408087288968922</v>
+      </c>
+      <c r="F56">
+        <v>0.07832564352584581</v>
+      </c>
+      <c r="G56">
+        <v>-0.01652272475929478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02395587078618043</v>
+        <v>-0.007313554768570608</v>
       </c>
       <c r="C57">
-        <v>-0.01436789701174528</v>
+        <v>0.009092490528799525</v>
       </c>
       <c r="D57">
-        <v>-0.04043784572231268</v>
+        <v>-0.02360158920419864</v>
       </c>
       <c r="E57">
-        <v>0.004245453182056477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02441215865869871</v>
+      </c>
+      <c r="F57">
+        <v>-0.009663163724922274</v>
+      </c>
+      <c r="G57">
+        <v>-0.02799144056974085</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01647476259307575</v>
+        <v>-0.06798882198119623</v>
       </c>
       <c r="C58">
-        <v>-0.0868910456684133</v>
+        <v>0.04205736454031057</v>
       </c>
       <c r="D58">
-        <v>-0.1244609622262607</v>
+        <v>-0.02659237464319773</v>
       </c>
       <c r="E58">
-        <v>0.4182438075287572</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9332562897126745</v>
+      </c>
+      <c r="F58">
+        <v>0.2468547203343631</v>
+      </c>
+      <c r="G58">
+        <v>0.1025767403926832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04024123105284211</v>
+        <v>-0.1568589778217762</v>
       </c>
       <c r="C59">
-        <v>-0.2549524802378753</v>
+        <v>-0.2076982571570501</v>
       </c>
       <c r="D59">
-        <v>0.1601953283117824</v>
+        <v>0.01262308063681764</v>
       </c>
       <c r="E59">
-        <v>-0.008445357323375214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01554428759388007</v>
+      </c>
+      <c r="F59">
+        <v>-0.004525319548048788</v>
+      </c>
+      <c r="G59">
+        <v>-0.04114520258903117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04138339959278207</v>
+        <v>-0.2873015681287751</v>
       </c>
       <c r="C60">
-        <v>-0.1632366634198497</v>
+        <v>0.09674649761148994</v>
       </c>
       <c r="D60">
-        <v>-0.07655741841296805</v>
+        <v>-0.01333125853740927</v>
       </c>
       <c r="E60">
-        <v>0.0004222157281107682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002269181764933852</v>
+      </c>
+      <c r="F60">
+        <v>-0.3527999288577712</v>
+      </c>
+      <c r="G60">
+        <v>0.1380059524319196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003200105540346154</v>
+        <v>-0.03651628014013182</v>
       </c>
       <c r="C61">
-        <v>-0.00711847758628081</v>
+        <v>0.0666516461174485</v>
       </c>
       <c r="D61">
-        <v>-0.06267489595352868</v>
+        <v>-0.005416642681309119</v>
       </c>
       <c r="E61">
-        <v>0.0006003123517505362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01378795054897391</v>
+      </c>
+      <c r="F61">
+        <v>-0.01542652936568851</v>
+      </c>
+      <c r="G61">
+        <v>-0.06481982967310032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007813998606958574</v>
+        <v>-0.01424263032393944</v>
       </c>
       <c r="C63">
-        <v>-0.008588311732345396</v>
+        <v>0.02943352876799494</v>
       </c>
       <c r="D63">
-        <v>-0.01169759353808354</v>
+        <v>-0.008102811310472443</v>
       </c>
       <c r="E63">
-        <v>-0.008562641133071281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001578097082122281</v>
+      </c>
+      <c r="F63">
+        <v>0.0171093910172096</v>
+      </c>
+      <c r="G63">
+        <v>-0.07146052536626916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009140485009927323</v>
+        <v>-0.0465191690210296</v>
       </c>
       <c r="C64">
-        <v>-0.03113876489085356</v>
+        <v>0.04700508169219466</v>
       </c>
       <c r="D64">
-        <v>-0.06079645302143111</v>
+        <v>-0.006386914653291715</v>
       </c>
       <c r="E64">
-        <v>0.01581416736582983</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002444783920155826</v>
+      </c>
+      <c r="F64">
+        <v>-0.004246805618796117</v>
+      </c>
+      <c r="G64">
+        <v>-0.0623175107499086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01715692902962647</v>
+        <v>-0.07861248778911505</v>
       </c>
       <c r="C65">
-        <v>-0.008673492323491704</v>
+        <v>0.05930519440240261</v>
       </c>
       <c r="D65">
-        <v>-0.1002587935823256</v>
+        <v>-0.01633170525947331</v>
       </c>
       <c r="E65">
-        <v>-0.008419831439252847</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02751440759281218</v>
+      </c>
+      <c r="F65">
+        <v>-0.03114778855359267</v>
+      </c>
+      <c r="G65">
+        <v>-0.0245706093961722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004631808548995676</v>
+        <v>-0.05119011999792546</v>
       </c>
       <c r="C66">
-        <v>0.01434148700232154</v>
+        <v>0.1119401976558121</v>
       </c>
       <c r="D66">
-        <v>-0.1125588184205449</v>
+        <v>-0.01208476686181787</v>
       </c>
       <c r="E66">
-        <v>0.01231302526881582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02949643565191347</v>
+      </c>
+      <c r="F66">
+        <v>-0.03537121146548636</v>
+      </c>
+      <c r="G66">
+        <v>-0.07370632707155288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003735447995636237</v>
+        <v>-0.05563509386931031</v>
       </c>
       <c r="C67">
-        <v>-0.05923068388973716</v>
+        <v>0.03176074951205261</v>
       </c>
       <c r="D67">
-        <v>-0.03862715724530431</v>
+        <v>0.006009456962246685</v>
       </c>
       <c r="E67">
-        <v>-0.006439823467061519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004597630443346618</v>
+      </c>
+      <c r="F67">
+        <v>0.01602031267977243</v>
+      </c>
+      <c r="G67">
+        <v>-0.06092234629441838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0564938357075315</v>
+        <v>-0.1437804856602745</v>
       </c>
       <c r="C68">
-        <v>-0.22863944277595</v>
+        <v>-0.2722607472704578</v>
       </c>
       <c r="D68">
-        <v>0.1633510100419391</v>
+        <v>-0.005092199665421332</v>
       </c>
       <c r="E68">
-        <v>0.01266984688785726</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01205599084209978</v>
+      </c>
+      <c r="F68">
+        <v>0.02851104456955822</v>
+      </c>
+      <c r="G68">
+        <v>-0.02675022774600867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0005971794461573756</v>
+        <v>-0.08219309247055968</v>
       </c>
       <c r="C69">
-        <v>-0.04331308204543419</v>
+        <v>0.06691209035455015</v>
       </c>
       <c r="D69">
-        <v>-0.06548457086592469</v>
+        <v>0.009568585049868416</v>
       </c>
       <c r="E69">
-        <v>-0.008542207404236781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02693794608688472</v>
+      </c>
+      <c r="F69">
+        <v>0.03926053136551655</v>
+      </c>
+      <c r="G69">
+        <v>-0.06857060309795843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04206909207196675</v>
+        <v>-0.1324256676295075</v>
       </c>
       <c r="C71">
-        <v>-0.2037952282729791</v>
+        <v>-0.2302099707650604</v>
       </c>
       <c r="D71">
-        <v>0.1338837607076257</v>
+        <v>0.003587177511608056</v>
       </c>
       <c r="E71">
-        <v>0.006065418871902766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03004580820355662</v>
+      </c>
+      <c r="F71">
+        <v>0.01295621100792773</v>
+      </c>
+      <c r="G71">
+        <v>-0.0530774671267233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0006469331703888964</v>
+        <v>-0.08674134158395816</v>
       </c>
       <c r="C72">
-        <v>-0.04349807895327566</v>
+        <v>0.07152912139179078</v>
       </c>
       <c r="D72">
-        <v>-0.1207259482955733</v>
+        <v>0.007868388966032284</v>
       </c>
       <c r="E72">
-        <v>-0.001263826699040961</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0008371675759737682</v>
+      </c>
+      <c r="F72">
+        <v>-0.04516646477461413</v>
+      </c>
+      <c r="G72">
+        <v>-0.05607629007046105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05487886507835855</v>
+        <v>-0.3825018918535447</v>
       </c>
       <c r="C73">
-        <v>-0.1868106340147651</v>
+        <v>0.1136799518955146</v>
       </c>
       <c r="D73">
-        <v>-0.1514101164787636</v>
+        <v>-0.02328656078856773</v>
       </c>
       <c r="E73">
-        <v>0.0413935099798299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07007670758824711</v>
+      </c>
+      <c r="F73">
+        <v>-0.5666065043427544</v>
+      </c>
+      <c r="G73">
+        <v>0.2192367576073139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004029191430940228</v>
+        <v>-0.1096132935841966</v>
       </c>
       <c r="C74">
-        <v>-0.07972632964666256</v>
+        <v>0.110631082180989</v>
       </c>
       <c r="D74">
-        <v>-0.1595549901391484</v>
+        <v>0.010020704077555</v>
       </c>
       <c r="E74">
-        <v>0.01306169669650774</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01369904629008847</v>
+      </c>
+      <c r="F74">
+        <v>0.07299515181579828</v>
+      </c>
+      <c r="G74">
+        <v>-0.06265307945911418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0136654862182813</v>
+        <v>-0.2512202483653566</v>
       </c>
       <c r="C75">
-        <v>-0.186674211191771</v>
+        <v>0.146373626579886</v>
       </c>
       <c r="D75">
-        <v>-0.2847623184038415</v>
+        <v>0.03075184018326587</v>
       </c>
       <c r="E75">
-        <v>0.01789394087113833</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05861331427299182</v>
+      </c>
+      <c r="F75">
+        <v>0.1797584988440178</v>
+      </c>
+      <c r="G75">
+        <v>0.04894806993508213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00135525025406531</v>
+        <v>-0.1242045343643371</v>
       </c>
       <c r="C76">
-        <v>-0.1183489128447485</v>
+        <v>0.111316102568325</v>
       </c>
       <c r="D76">
-        <v>-0.2229327391381295</v>
+        <v>0.02045418110485502</v>
       </c>
       <c r="E76">
-        <v>-0.02956525778681517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04255053751151015</v>
+      </c>
+      <c r="F76">
+        <v>0.113589604904657</v>
+      </c>
+      <c r="G76">
+        <v>-0.0404488372954326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01340803327745872</v>
+        <v>-0.06665919771798857</v>
       </c>
       <c r="C77">
-        <v>-0.02183537059007365</v>
+        <v>0.05795735148224739</v>
       </c>
       <c r="D77">
-        <v>-0.04440923785306903</v>
+        <v>-0.0126408756855104</v>
       </c>
       <c r="E77">
-        <v>0.02151742127419239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05130973405731935</v>
+      </c>
+      <c r="F77">
+        <v>-0.01338022768690476</v>
+      </c>
+      <c r="G77">
+        <v>-0.06295695221357551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005102736169589742</v>
+        <v>-0.04460966136480893</v>
       </c>
       <c r="C78">
-        <v>-0.01581132734817193</v>
+        <v>0.04945543408846641</v>
       </c>
       <c r="D78">
-        <v>-0.05926684734915282</v>
+        <v>-0.005565905927410479</v>
       </c>
       <c r="E78">
-        <v>0.01020353533612977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02343419524835972</v>
+      </c>
+      <c r="F78">
+        <v>-0.03738740224461575</v>
+      </c>
+      <c r="G78">
+        <v>-0.06902617013259917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01659120278739883</v>
+        <v>-0.05790987828928822</v>
       </c>
       <c r="C80">
-        <v>-0.09258730845359028</v>
+        <v>0.07016503387167521</v>
       </c>
       <c r="D80">
-        <v>-0.2444062967301959</v>
+        <v>-0.01015727164730481</v>
       </c>
       <c r="E80">
-        <v>-0.7742872668163687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.026472842949639</v>
+      </c>
+      <c r="F80">
+        <v>-0.009630017615188268</v>
+      </c>
+      <c r="G80">
+        <v>-0.6517914248003293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008585943013528384</v>
+        <v>-0.14290483572153</v>
       </c>
       <c r="C81">
-        <v>-0.1105718474861461</v>
+        <v>0.09088916192923567</v>
       </c>
       <c r="D81">
-        <v>-0.1655931642240102</v>
+        <v>0.01573978901636563</v>
       </c>
       <c r="E81">
-        <v>-0.009835403491011892</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03617889500061025</v>
+      </c>
+      <c r="F81">
+        <v>0.1272980158757571</v>
+      </c>
+      <c r="G81">
+        <v>-0.02163691446171398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1230983386929683</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06265707472054673</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007442574537645091</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08630576602102334</v>
+      </c>
+      <c r="F82">
+        <v>0.02385461761402908</v>
+      </c>
+      <c r="G82">
+        <v>-0.02673167545849552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007114588517944764</v>
+        <v>-0.0347959180872541</v>
       </c>
       <c r="C83">
-        <v>-0.02108036943397909</v>
+        <v>0.02469990895856772</v>
       </c>
       <c r="D83">
-        <v>-0.01964154261273365</v>
+        <v>-0.005716904633651119</v>
       </c>
       <c r="E83">
-        <v>0.002012147189067949</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02871996263446873</v>
+      </c>
+      <c r="F83">
+        <v>-0.03471364432870967</v>
+      </c>
+      <c r="G83">
+        <v>-0.04575305058357933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01976029144184884</v>
+        <v>-0.2185954180502055</v>
       </c>
       <c r="C85">
-        <v>-0.147072624821996</v>
+        <v>0.1409232150463784</v>
       </c>
       <c r="D85">
-        <v>-0.2577687661457301</v>
+        <v>0.0185384451265233</v>
       </c>
       <c r="E85">
-        <v>0.01062669305152983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1004629057213575</v>
+      </c>
+      <c r="F85">
+        <v>0.1428868659281355</v>
+      </c>
+      <c r="G85">
+        <v>0.09820889753472037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0097316492422268</v>
+        <v>-0.01389806843340717</v>
       </c>
       <c r="C86">
-        <v>-0.03365456004054766</v>
+        <v>0.02347402056641133</v>
       </c>
       <c r="D86">
-        <v>-0.006913148854790961</v>
+        <v>-0.01178333192823744</v>
       </c>
       <c r="E86">
-        <v>0.03809468585702006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04716734007374387</v>
+      </c>
+      <c r="F86">
+        <v>-0.0428912741578235</v>
+      </c>
+      <c r="G86">
+        <v>-0.1436998181354842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008441352915280463</v>
+        <v>-0.0226111479606916</v>
       </c>
       <c r="C87">
-        <v>-0.01360940800495054</v>
+        <v>0.0269979121962827</v>
       </c>
       <c r="D87">
-        <v>-0.04077957296180616</v>
+        <v>-0.01198542566829792</v>
       </c>
       <c r="E87">
-        <v>0.01589591021680851</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08566605485194509</v>
+      </c>
+      <c r="F87">
+        <v>-0.02133470365625035</v>
+      </c>
+      <c r="G87">
+        <v>-0.09220540100673393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02817345943405798</v>
+        <v>-0.09233847636459737</v>
       </c>
       <c r="C88">
-        <v>-0.03520251415440924</v>
+        <v>0.06646739683928438</v>
       </c>
       <c r="D88">
-        <v>-0.03924346572909623</v>
+        <v>-0.02249241211678903</v>
       </c>
       <c r="E88">
-        <v>-0.001446934592327128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01299084597113564</v>
+      </c>
+      <c r="F88">
+        <v>0.02576376122786081</v>
+      </c>
+      <c r="G88">
+        <v>-0.05887558314693733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07930720722794737</v>
+        <v>-0.2232532327859415</v>
       </c>
       <c r="C89">
-        <v>-0.3728959560087027</v>
+        <v>-0.3743108491664409</v>
       </c>
       <c r="D89">
-        <v>0.2382326616612243</v>
+        <v>0.002655156461231509</v>
       </c>
       <c r="E89">
-        <v>-0.02421979201843827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02168145684685313</v>
+      </c>
+      <c r="F89">
+        <v>0.02341473576852959</v>
+      </c>
+      <c r="G89">
+        <v>-0.04048938793000462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06102232062731174</v>
+        <v>-0.2001601899096832</v>
       </c>
       <c r="C90">
-        <v>-0.2902545582368228</v>
+        <v>-0.3262972109178376</v>
       </c>
       <c r="D90">
-        <v>0.2137143432877564</v>
+        <v>0.006833444791898654</v>
       </c>
       <c r="E90">
-        <v>0.008223877989491916</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01280002705821806</v>
+      </c>
+      <c r="F90">
+        <v>0.04942480839555016</v>
+      </c>
+      <c r="G90">
+        <v>-0.01975185220204527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008904421131650258</v>
+        <v>-0.1935356277299355</v>
       </c>
       <c r="C91">
-        <v>-0.1577964956500127</v>
+        <v>0.1385606395076572</v>
       </c>
       <c r="D91">
-        <v>-0.2265921033536288</v>
+        <v>0.02365359018216199</v>
       </c>
       <c r="E91">
-        <v>-0.01289578051530479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07050434645234184</v>
+      </c>
+      <c r="F91">
+        <v>0.1517071172933072</v>
+      </c>
+      <c r="G91">
+        <v>-0.01547539959812297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02776645527282643</v>
+        <v>-0.1968355979633835</v>
       </c>
       <c r="C92">
-        <v>-0.3028069980155423</v>
+        <v>-0.2623095971832432</v>
       </c>
       <c r="D92">
-        <v>0.1041751152177827</v>
+        <v>0.04105923037173949</v>
       </c>
       <c r="E92">
-        <v>0.01463808004899391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02121598092479392</v>
+      </c>
+      <c r="F92">
+        <v>0.06326831420661365</v>
+      </c>
+      <c r="G92">
+        <v>-0.1280632246974423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0583099495027424</v>
+        <v>-0.2257086771457479</v>
       </c>
       <c r="C93">
-        <v>-0.3120981580377239</v>
+        <v>-0.3246277635287813</v>
       </c>
       <c r="D93">
-        <v>0.194237551191971</v>
+        <v>0.01313311277524359</v>
       </c>
       <c r="E93">
-        <v>0.03588113210813316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002146887155552978</v>
+      </c>
+      <c r="F93">
+        <v>0.03399234730751453</v>
+      </c>
+      <c r="G93">
+        <v>-0.02273036198753213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03321232957711256</v>
+        <v>-0.3175491320755796</v>
       </c>
       <c r="C94">
-        <v>-0.1872702044185376</v>
+        <v>0.1712687734054457</v>
       </c>
       <c r="D94">
-        <v>-0.2485740984586986</v>
+        <v>0.01855925261180218</v>
       </c>
       <c r="E94">
-        <v>0.01716186500547915</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1728858629666528</v>
+      </c>
+      <c r="F94">
+        <v>0.4791378763859753</v>
+      </c>
+      <c r="G94">
+        <v>0.2936651510275749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004489169244227507</v>
+        <v>-0.09859906678442014</v>
       </c>
       <c r="C95">
-        <v>-0.03981898099089132</v>
+        <v>0.08657961713011735</v>
       </c>
       <c r="D95">
-        <v>-0.08338563400986226</v>
+        <v>0.008718385647958238</v>
       </c>
       <c r="E95">
-        <v>0.1306701249263254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06548365511395257</v>
+      </c>
+      <c r="F95">
+        <v>-0.1872903724368674</v>
+      </c>
+      <c r="G95">
+        <v>0.06726683841574228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01547922905214146</v>
+        <v>-0.1988036352189159</v>
       </c>
       <c r="C98">
-        <v>-0.1692803067386089</v>
+        <v>0.04604772674847538</v>
       </c>
       <c r="D98">
-        <v>-0.1102890385537585</v>
+        <v>0.01198084519409312</v>
       </c>
       <c r="E98">
-        <v>0.04781004870606432</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07015939647334393</v>
+      </c>
+      <c r="F98">
+        <v>-0.241350217128468</v>
+      </c>
+      <c r="G98">
+        <v>0.0224104715983928</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008299828174044883</v>
+        <v>-0.0104028566763628</v>
       </c>
       <c r="C101">
-        <v>-0.01792023870561124</v>
+        <v>0.02030208265379548</v>
       </c>
       <c r="D101">
-        <v>-0.009296182207345101</v>
+        <v>-0.007786378606430656</v>
       </c>
       <c r="E101">
-        <v>-0.003126700411822864</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.003913476333230112</v>
+      </c>
+      <c r="F101">
+        <v>0.01493670193778066</v>
+      </c>
+      <c r="G101">
+        <v>-0.0712853634479385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01878954781764985</v>
+        <v>-0.1187687104172887</v>
       </c>
       <c r="C102">
-        <v>-0.08252742503272013</v>
+        <v>0.08261480532792129</v>
       </c>
       <c r="D102">
-        <v>-0.1241459198712004</v>
+        <v>-0.001016035731902294</v>
       </c>
       <c r="E102">
-        <v>0.000167650539059628</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03203593466936561</v>
+      </c>
+      <c r="F102">
+        <v>0.04202622694176111</v>
+      </c>
+      <c r="G102">
+        <v>-0.00303689990004019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001940695336179112</v>
+        <v>-0.003176896485385521</v>
       </c>
       <c r="C103">
-        <v>-0.01083006054379475</v>
+        <v>0.003531221565055464</v>
       </c>
       <c r="D103">
-        <v>-0.02196684969408051</v>
+        <v>-0.0002462315745453298</v>
       </c>
       <c r="E103">
-        <v>-0.0130334875151612</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002071071165965794</v>
+      </c>
+      <c r="F103">
+        <v>0.004818311893159603</v>
+      </c>
+      <c r="G103">
+        <v>-0.01290351277108057</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9756856915800578</v>
+        <v>-0.02230187917054196</v>
       </c>
       <c r="C104">
-        <v>0.1723014297411704</v>
+        <v>-0.03372771729627614</v>
       </c>
       <c r="D104">
-        <v>0.01281367282009462</v>
+        <v>-0.9871870545363749</v>
       </c>
       <c r="E104">
-        <v>-0.04239885557686188</v>
+        <v>0.05228817781216658</v>
+      </c>
+      <c r="F104">
+        <v>0.0408191872196432</v>
+      </c>
+      <c r="G104">
+        <v>0.01974395550162874</v>
       </c>
     </row>
   </sheetData>
